--- a/proposal_etc/フェニックス.xlsx
+++ b/proposal_etc/フェニックス.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/Phoenix/proposal_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EE4D35-A004-8145-88D0-657144771EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCABE3E3-73D5-A94D-AA65-4961843B3FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="500" windowWidth="17020" windowHeight="15780" activeTab="5" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
+    <workbookView xWindow="2660" yWindow="500" windowWidth="25880" windowHeight="15780" activeTab="2" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
   <si>
     <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
@@ -181,14 +181,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤→橙→黄→緑→
-青→藍→紫の順で変更</t>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,18 +897,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤、橙、黄、緑、青、
-藍、紫の炎を纏った
-フェニックス</t>
-    <rPh sb="15" eb="16">
-      <t>ホノオ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>マトッタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>赤</t>
     <rPh sb="0" eb="1">
       <t>アカ</t>
@@ -966,6 +946,261 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>シュツゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックスの目的は人類の撲滅</t>
+    <rPh sb="7" eb="9">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジンルイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボクメテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fenix=================地球</t>
+    <rPh sb="22" eb="24">
+      <t>チキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎エフェクト</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎秒１ダメージ
+10秒継続
+弾速：中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑ブーメラン</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２ダメージ
+弧を描く様に出る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(できたら)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤、橙、黄、緑、青、
+藍、紫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤、緑、青の炎を纏った
+フェニックス</t>
+    <rPh sb="5" eb="6">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マトッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤→緑→
+青の順で変更</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾→敵</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ×２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ×0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾←敵</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同色</t>
+    <rPh sb="0" eb="2">
+      <t>ドウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ分回復</t>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックスが街を
+破壊する映像を流す</t>
+    <rPh sb="7" eb="8">
+      <t>マチヲ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面左からフェニックス
+通った場所を廃墟にする</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオッタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街→廃墟</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">マチ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の前に流す
+タイトル画面の後ろで流す</t>
+    <rPh sb="4" eb="6">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガス</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウシロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナガス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の情報</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションを開く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の情報を開く</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタンを押したら
+ゲームをスタートする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量の変更</t>
+    <rPh sb="0" eb="2">
+      <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(オプション)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行った行動のみ
+情報を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>オコナッタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1026,7 +1261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1114,6 +1349,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1123,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,9 +1393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1157,20 +1413,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1181,20 +1437,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1212,6 +1465,170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1082287</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1794029</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104433</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A106A35-44B6-2E78-130D-B5567EBBED16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5798549" y="3495583"/>
+          <a:ext cx="711742" cy="277054"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104806</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>775495</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93604</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D555A1E1-E935-6641-981C-A6AFDEC37547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4821068" y="3501748"/>
+          <a:ext cx="670689" cy="260060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339078</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1578253</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166456</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F0E1DC-C1B1-9F4B-9A93-F6BA75804427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5055340" y="3834660"/>
+          <a:ext cx="1239175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1514,7 +1931,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1524,40 +1941,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="20"/>
+      <c r="C5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
@@ -1572,23 +1989,23 @@
     </row>
     <row r="7" spans="2:4">
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +2014,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
+    <hyperlink ref="D3" location="ゲーム概要!A1" display="ゲーム概要!A1" xr:uid="{B060912B-55EC-3145-BA03-F8555A215BC9}"/>
+    <hyperlink ref="D9" location="ザコ敵!A1" display="ザコ敵!A1" xr:uid="{106FEF0E-5A3D-7547-8482-862FC69715AC}"/>
+    <hyperlink ref="D8" location="ボス!A1" display="ボス!A1" xr:uid="{2A11C008-1F5C-684A-8341-0659BC12CDC2}"/>
     <hyperlink ref="D6" location="プレイヤー!A1" display="プレイヤー!A1" xr:uid="{0995C729-FE3C-7C40-BF9F-9B28B8AAB1A4}"/>
-    <hyperlink ref="D8" location="ボス!A1" display="ボス!A1" xr:uid="{2A11C008-1F5C-684A-8341-0659BC12CDC2}"/>
-    <hyperlink ref="D9" location="ザコ敵!A1" display="ザコ敵!A1" xr:uid="{106FEF0E-5A3D-7547-8482-862FC69715AC}"/>
-    <hyperlink ref="D3" location="ゲーム概要!A1" display="ゲーム概要!A1" xr:uid="{B060912B-55EC-3145-BA03-F8555A215BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1608,28 +2025,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF533E7D-66BA-1549-9BB3-92F0DB444D41}">
-  <dimension ref="B1:F4"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="2:6" ht="21" thickBot="1"/>
     <row r="2" spans="2:6" ht="21" thickBot="1">
-      <c r="B2" s="19" t="s">
-        <v>68</v>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="114" customHeight="1">
-      <c r="B4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1642,19 +2074,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5473AD1B-29C5-C64C-B908-43534349C368}">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="21" thickBot="1"/>
-    <row r="2" spans="2:2" ht="21" thickBot="1">
-      <c r="B2" s="14" t="s">
-        <v>69</v>
-      </c>
+    <row r="1" spans="2:5" ht="21" thickBot="1"/>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="42">
+      <c r="B5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21">
+      <c r="B7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" ht="42">
+      <c r="B8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1664,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E97EC6-92D9-DB4E-A368-5CA432D89078}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1680,22 +2192,21 @@
   <sheetData>
     <row r="1" spans="2:5" ht="21" thickBot="1"/>
     <row r="2" spans="2:5" ht="21" thickBot="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1710,21 +2221,21 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="42">
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="42">
@@ -1732,62 +2243,56 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="42">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="42">
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="42">
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="42">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="42">
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1797,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C6F69E-9FBF-0D45-A4F4-DF6E59EB881F}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1808,176 +2313,227 @@
     <col min="1" max="1" width="10.7109375" style="2"/>
     <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="2"/>
+    <col min="6" max="6" width="10.7109375" style="2"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="21" thickBot="1"/>
-    <row r="2" spans="2:5" ht="21" thickBot="1">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="21" thickBot="1"/>
+    <row r="2" spans="2:7" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="63">
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="42">
+      <c r="B7" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="42">
-      <c r="B5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="42">
-      <c r="B6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="42">
-      <c r="B7" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="F10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="42">
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="42">
+      <c r="B19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="42">
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="63">
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="63">
-      <c r="B8" s="9" t="s">
+    <row r="22" spans="2:5" ht="42">
+      <c r="B22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="63">
+      <c r="B23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="42">
-      <c r="B9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="63">
-      <c r="B10" s="9" t="s">
+      <c r="E23" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="63">
+      <c r="B24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="63">
-      <c r="B11" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CADC2-EAA1-4F46-8D4F-BA24B2549AF2}">
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1988,137 +2544,139 @@
     <col min="6" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="21" thickBot="1"/>
-    <row r="2" spans="2:5" ht="21" thickBot="1">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="21" thickBot="1"/>
+    <row r="2" spans="2:7" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="42">
+    <row r="5" spans="2:7" ht="42">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="21">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="42">
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="21">
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="42">
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="42">
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="42">
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="63">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="42">
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="84">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="63">
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="42">
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="63">
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="G11" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="63">
+      <c r="B12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="105">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2145,22 +2703,21 @@
   <sheetData>
     <row r="1" spans="2:5" ht="21" thickBot="1"/>
     <row r="2" spans="2:5" ht="21" thickBot="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2169,60 +2726,53 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="63">
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="63">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="84">
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/proposal_etc/フェニックス.xlsx
+++ b/proposal_etc/フェニックス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/Phoenix/proposal_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCABE3E3-73D5-A94D-AA65-4961843B3FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DA8F06-6D55-314C-9A36-9EA9F2FA5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="500" windowWidth="25880" windowHeight="15780" activeTab="2" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
+    <workbookView xWindow="10300" yWindow="500" windowWidth="18220" windowHeight="15780" activeTab="6" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
   <si>
     <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
@@ -970,10 +970,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3分</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>炎エフェクト</t>
     <rPh sb="0" eb="1">
       <t>ホノオエ</t>
@@ -1202,6 +1198,23 @@
     <rPh sb="10" eb="12">
       <t>ヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾と弱点!A1</t>
+  </si>
+  <si>
+    <t>タイトル仕様!A1</t>
+  </si>
+  <si>
+    <t>3分程度</t>
+    <rPh sb="2" eb="4">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつ出るか、どれくらい出るか。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1429,13 +1442,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,7 +1454,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1930,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E2DF8-A02F-5245-9838-F1240962D991}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1952,7 +1965,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1963,14 +1976,16 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
         <v>69</v>
       </c>
@@ -1990,6 +2005,9 @@
     <row r="7" spans="2:4">
       <c r="C7" t="s">
         <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2018,6 +2036,8 @@
     <hyperlink ref="D9" location="ザコ敵!A1" display="ザコ敵!A1" xr:uid="{106FEF0E-5A3D-7547-8482-862FC69715AC}"/>
     <hyperlink ref="D8" location="ボス!A1" display="ボス!A1" xr:uid="{2A11C008-1F5C-684A-8341-0659BC12CDC2}"/>
     <hyperlink ref="D6" location="プレイヤー!A1" display="プレイヤー!A1" xr:uid="{0995C729-FE3C-7C40-BF9F-9B28B8AAB1A4}"/>
+    <hyperlink ref="D7" location="弾と弱点!A1" display="弾と弱点!A1" xr:uid="{8D842DC6-3FD8-5A44-A390-BAD82320BFAC}"/>
+    <hyperlink ref="D4" location="タイトル仕様!A1" display="タイトル仕様!A1" xr:uid="{FDF37418-BD27-7B46-BE93-44ADC8CA5DD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2027,9 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF533E7D-66BA-1549-9BB3-92F0DB444D41}">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -2040,12 +2058,12 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="114" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="2:6">
@@ -2060,7 +2078,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2076,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5473AD1B-29C5-C64C-B908-43534349C368}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2108,52 +2126,52 @@
     </row>
     <row r="5" spans="2:5" ht="42">
       <c r="B5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="42">
       <c r="B6" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21">
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" ht="42">
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2178,9 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E97EC6-92D9-DB4E-A368-5CA432D89078}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -2232,7 +2248,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>27</v>
@@ -2304,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C6F69E-9FBF-0D45-A4F4-DF6E59EB881F}">
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2346,10 +2362,10 @@
         <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="42">
@@ -2374,10 +2390,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -2385,42 +2401,42 @@
         <v>106</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="F10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="15" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="42">
@@ -2656,13 +2672,13 @@
         <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="63">
@@ -2689,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC65127-204A-934C-82D1-900DBC4B7055}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2768,6 +2784,9 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5">

--- a/proposal_etc/フェニックス.xlsx
+++ b/proposal_etc/フェニックス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/Phoenix/proposal_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DA8F06-6D55-314C-9A36-9EA9F2FA5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91363250-4CCE-A849-8E26-F59386667453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="500" windowWidth="18220" windowHeight="15780" activeTab="6" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
+    <workbookView xWindow="10300" yWindow="500" windowWidth="18220" windowHeight="15780" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
   <si>
     <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
@@ -1215,6 +1215,119 @@
   </si>
   <si>
     <t>いつ出るか、どれくらい出るか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ敵①</t>
+    <rPh sb="0" eb="2">
+      <t>ザコテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ敵②</t>
+    <rPh sb="0" eb="2">
+      <t>ザコテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ敵③</t>
+    <rPh sb="0" eb="2">
+      <t>ザコテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30°~45°でギザギザ飛ぶ</t>
+    <rPh sb="12" eb="13">
+      <t>トブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに向かって
+ギザギザ飛ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>ムカッテ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30°~45°でギザギザ飛ぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒ごとに消えて出る</t>
+    <rPh sb="5" eb="6">
+      <t>キエテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒ごとに消えて出る</t>
+    <rPh sb="5" eb="6">
+      <t>キエテ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>デル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現頻度</t>
+    <rPh sb="0" eb="4">
+      <t>シュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2体/1秒</t>
+  </si>
+  <si>
+    <t>2体/1秒</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1体/1秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1体/2秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2体/0.75秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2体/0.5秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1体/0.75秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1体/1.5秒</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1395,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,6 +1574,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1943,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E2DF8-A02F-5245-9838-F1240962D991}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2703,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC65127-204A-934C-82D1-900DBC4B7055}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2723,6 +2842,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>8</v>
@@ -2792,6 +2919,190 @@
     <row r="10" spans="2:5">
       <c r="C10" s="5"/>
       <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="42">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="42">
+      <c r="B14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="63">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="42">
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="63">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/proposal_etc/フェニックス.xlsx
+++ b/proposal_etc/フェニックス.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/Phoenix/proposal_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91363250-4CCE-A849-8E26-F59386667453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874AA00A-3DDF-9340-B0F3-1960ADA965A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="500" windowWidth="18220" windowHeight="15780" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18980" windowHeight="15780" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
     <sheet name="ゲーム概要" sheetId="10" r:id="rId2"/>
     <sheet name="タイトル仕様" sheetId="11" r:id="rId3"/>
-    <sheet name="プレイヤー" sheetId="5" r:id="rId4"/>
-    <sheet name="弾と弱点" sheetId="13" r:id="rId5"/>
-    <sheet name="ボス" sheetId="8" r:id="rId6"/>
-    <sheet name="ザコ敵" sheetId="9" r:id="rId7"/>
+    <sheet name="システム仕様" sheetId="14" r:id="rId4"/>
+    <sheet name="操作仕様" sheetId="15" r:id="rId5"/>
+    <sheet name="メニュー仕様" sheetId="16" r:id="rId6"/>
+    <sheet name="フィールド仕様" sheetId="17" r:id="rId7"/>
+    <sheet name="プレイヤー" sheetId="5" r:id="rId8"/>
+    <sheet name="弾と弱点" sheetId="13" r:id="rId9"/>
+    <sheet name="ボス" sheetId="8" r:id="rId10"/>
+    <sheet name="ザコ敵" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
   <si>
     <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
@@ -1298,9 +1302,6 @@
   </si>
   <si>
     <t>2体/1秒</t>
-  </si>
-  <si>
-    <t>2体/1秒</t>
     <rPh sb="1" eb="2">
       <t>タイ</t>
     </rPh>
@@ -1311,10 +1312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1体/2秒</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2体/0.75秒</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1323,12 +1320,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1体/0.75秒</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1体/1.5秒</t>
-    <phoneticPr fontId="1"/>
+    <t>1体/10秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1体/5秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1体/2.5秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作仕様</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム仕様!A1</t>
+  </si>
+  <si>
+    <t>操作仕様!A1</t>
+  </si>
+  <si>
+    <t>メニュー仕様!A1</t>
+  </si>
+  <si>
+    <t>フィールド仕様!A1</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1557,6 +1603,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,11 +1627,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1758,6 +1807,104 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34554</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470852</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28261DB4-210D-FCDF-2946-405F65591B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10042154" y="820352"/>
+          <a:ext cx="7192698" cy="10277160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>170657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA4A3D0-5B42-0372-3665-A9EC99A09693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9604375" y="773907"/>
+          <a:ext cx="3365500" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2060,16 +2207,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E2DF8-A02F-5245-9838-F1240962D991}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -2084,7 +2231,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -2095,7 +2242,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="13" t="s">
         <v>68</v>
       </c>
@@ -2104,7 +2251,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="13" t="s">
         <v>69</v>
       </c>
@@ -2114,34 +2261,66 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="C7" t="s">
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="C8" t="s">
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="C9" t="s">
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2152,13 +2331,466 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D3" location="ゲーム概要!A1" display="ゲーム概要!A1" xr:uid="{B060912B-55EC-3145-BA03-F8555A215BC9}"/>
-    <hyperlink ref="D9" location="ザコ敵!A1" display="ザコ敵!A1" xr:uid="{106FEF0E-5A3D-7547-8482-862FC69715AC}"/>
-    <hyperlink ref="D8" location="ボス!A1" display="ボス!A1" xr:uid="{2A11C008-1F5C-684A-8341-0659BC12CDC2}"/>
-    <hyperlink ref="D6" location="プレイヤー!A1" display="プレイヤー!A1" xr:uid="{0995C729-FE3C-7C40-BF9F-9B28B8AAB1A4}"/>
-    <hyperlink ref="D7" location="弾と弱点!A1" display="弾と弱点!A1" xr:uid="{8D842DC6-3FD8-5A44-A390-BAD82320BFAC}"/>
+    <hyperlink ref="D13" location="ザコ敵!A1" display="ザコ敵!A1" xr:uid="{106FEF0E-5A3D-7547-8482-862FC69715AC}"/>
+    <hyperlink ref="D12" location="ボス!A1" display="ボス!A1" xr:uid="{2A11C008-1F5C-684A-8341-0659BC12CDC2}"/>
+    <hyperlink ref="D10" location="プレイヤー!A1" display="プレイヤー!A1" xr:uid="{0995C729-FE3C-7C40-BF9F-9B28B8AAB1A4}"/>
+    <hyperlink ref="D11" location="弾と弱点!A1" display="弾と弱点!A1" xr:uid="{8D842DC6-3FD8-5A44-A390-BAD82320BFAC}"/>
     <hyperlink ref="D4" location="タイトル仕様!A1" display="タイトル仕様!A1" xr:uid="{FDF37418-BD27-7B46-BE93-44ADC8CA5DD0}"/>
+    <hyperlink ref="D6" location="システム仕様!A1" display="システム仕様!A1" xr:uid="{A6215AC2-BAA8-EB44-B67E-C7D0605D7359}"/>
+    <hyperlink ref="D7" location="操作仕様!A1" display="操作仕様!A1" xr:uid="{C14B8B0E-F7E8-5E42-BD9A-7C8B911F17F4}"/>
+    <hyperlink ref="D8" location="メニュー仕様!A1" display="メニュー仕様!A1" xr:uid="{F8CA4684-0322-B54F-88BB-B83E73186280}"/>
+    <hyperlink ref="D9" location="フィールド仕様!A1" display="フィールド仕様!A1" xr:uid="{9BC5886C-E625-2241-BD3A-34366212C276}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CADC2-EAA1-4F46-8D4F-BA24B2549AF2}">
+  <dimension ref="B1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="55" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21" thickBot="1"/>
+    <row r="2" spans="2:7" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="42">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="21">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="42">
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="42">
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="63">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="42">
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="84">
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="63">
+      <c r="B12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC65127-204A-934C-82D1-900DBC4B7055}">
+  <dimension ref="B1:E29"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" thickBot="1"/>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="63">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="42">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="42">
+      <c r="B14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="63">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="42">
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="63">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2177,12 +2809,12 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="114" customHeight="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="2:6">
@@ -2312,10 +2944,314 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACF55BE-794F-D546-9380-109145581268}">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" thickBot="1"/>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A80760-3C7A-F740-8815-DFD54598A6DF}">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" thickBot="1"/>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388ADA88-E54C-7849-9DB5-46167F40E8D3}">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" thickBot="1"/>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F4D1A-D136-EE4D-B04B-443A9804D87A}">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" thickBot="1"/>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E97EC6-92D9-DB4E-A368-5CA432D89078}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -2435,7 +3371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C6F69E-9FBF-0D45-A4F4-DF6E59EB881F}">
   <dimension ref="B1:G24"/>
   <sheetViews>
@@ -2661,451 +3597,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CADC2-EAA1-4F46-8D4F-BA24B2549AF2}">
-  <dimension ref="B1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="21" thickBot="1"/>
-    <row r="2" spans="2:7" ht="21" thickBot="1">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="42">
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="21">
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="42">
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="42">
-      <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="63">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="42">
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="84">
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="63">
-      <c r="B12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC65127-204A-934C-82D1-900DBC4B7055}">
-  <dimension ref="B1:E29"/>
-  <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="21" thickBot="1"/>
-    <row r="2" spans="2:5" ht="21" thickBot="1">
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="42">
-      <c r="B6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="63">
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="C8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="42">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="42">
-      <c r="B14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="63">
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="42">
-      <c r="B22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="63">
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/proposal_etc/フェニックス.xlsx
+++ b/proposal_etc/フェニックス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/Phoenix/proposal_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874AA00A-3DDF-9340-B0F3-1960ADA965A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C9D3B2-2F42-9847-BDF7-42AF24E41DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18980" windowHeight="15780" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" activeTab="7" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="操作仕様" sheetId="15" r:id="rId5"/>
     <sheet name="メニュー仕様" sheetId="16" r:id="rId6"/>
     <sheet name="フィールド仕様" sheetId="17" r:id="rId7"/>
-    <sheet name="プレイヤー" sheetId="5" r:id="rId8"/>
-    <sheet name="弾と弱点" sheetId="13" r:id="rId9"/>
-    <sheet name="ボス" sheetId="8" r:id="rId10"/>
-    <sheet name="ザコ敵" sheetId="9" r:id="rId11"/>
+    <sheet name="ステージ仕様" sheetId="18" r:id="rId8"/>
+    <sheet name="プレイヤー" sheetId="5" r:id="rId9"/>
+    <sheet name="弾と弱点" sheetId="13" r:id="rId10"/>
+    <sheet name="ボス" sheetId="8" r:id="rId11"/>
+    <sheet name="ザコ敵" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="209">
   <si>
     <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
@@ -1375,6 +1376,323 @@
   </si>
   <si>
     <t>フィールド仕様!A1</t>
+  </si>
+  <si>
+    <t>今の弾の色</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の変更時
+左上の色を変更する</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を変更した場合
+色を弾に合わせる</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アワセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフの表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフを５表示し、
+攻撃を受けると−１</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウケルト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフカウンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾色</t>
+    <rPh sb="0" eb="2">
+      <t>ダンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフが０になった場合
+GAMEOVERを表示する</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景のスクロール</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景を右から左へ流す</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景各ステージ２枚</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景を繋げて連続で流す</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ツナゲテ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ仕様(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ仕様(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ仕様(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックスを覆うバリア</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリア(色が変わる毎20秒)</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">マイ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリアのHPバリアのHPが０
+になった場合フェニックスを
+右へ移動しclearを表示</t>
+    <rPh sb="26" eb="27">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シジヲ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス
+テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの表示</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時画面下に
+テキストを10秒表示</t>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ赤</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">アカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ青</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ緑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストが消えた5秒後
+４匹出す</t>
+    <rPh sb="5" eb="6">
+      <t>キエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ダス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストが消えた5秒後
+４匹出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の登場15秒後２匹出す</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>トウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の登場15秒後２匹出す</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の登場15秒後
+右から出す</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミギカラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の登場15秒後
+右から出す</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1433,7 +1751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1545,6 +1863,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1554,7 +1952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,8 +2025,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1649,6 +2071,618 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38236</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209686</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>248810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="円/楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2606A9-8CD3-5142-9468-7C1947F59519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9617860" y="863190"/>
+          <a:ext cx="171450" cy="170835"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413650A2-B2D8-C09D-3087-7C618421559A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652000" y="596900"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>699467</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>214044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="平行四辺形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302677C1-421A-9902-8666-F59F261475D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10084574" y="631967"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>699080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>890547</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>218170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="平行四辺形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A6EEB6-1A7A-3E43-9E95-BCC77AD2E92F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10275654" y="636093"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>899830</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137186</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>222295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="平行四辺形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D3BB52-B133-BE4C-9F35-094AAE1C034E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10476404" y="640218"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140022</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>331489</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>226420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="平行四辺形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308802AF-66D6-E94B-A589-B5AC932E149B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10670707" y="644343"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334326</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>525793</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>227323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="平行四辺形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01096C0-B40A-A344-BBF5-E8E563EFA2C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10865011" y="645246"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238607</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>846668</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="三角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0383E4B7-11D7-550C-0B68-D92CB1FF3A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19800000">
+          <a:off x="9813637" y="1662544"/>
+          <a:ext cx="608061" cy="524191"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>343378</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514828</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="円/楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256E61D8-B03A-7C45-A27E-8A7993F1D37F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9923002" y="867150"/>
+          <a:ext cx="171450" cy="170835"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142177</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>901698</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC865B3-DF32-D20A-AC96-832E3764F1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="4736" r="23421" b="56675"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13181898" y="1133483"/>
+          <a:ext cx="2404180" cy="1712022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1812,20 +2846,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>34554</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136154</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7552</xdr:rowOff>
+      <xdr:rowOff>32952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>470852</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>572452</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>99312</xdr:rowOff>
+      <xdr:rowOff>124712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1848,7 +2882,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10042154" y="820352"/>
+          <a:off x="11108954" y="845752"/>
           <a:ext cx="7192698" cy="10277160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1861,7 +2895,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2207,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E2DF8-A02F-5245-9838-F1240962D991}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2261,7 +3295,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2269,7 +3303,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="C7" s="24" t="s">
+      <c r="C7" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2277,7 +3311,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="C8" s="24" t="s">
+      <c r="C8" t="s">
         <v>166</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2285,7 +3319,7 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="C9" s="24" t="s">
+      <c r="C9" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2294,33 +3328,38 @@
     </row>
     <row r="10" spans="2:4">
       <c r="C10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="C11" t="s">
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="C12" t="s">
+    <row r="16" spans="2:4">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="C13" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2331,10 +3370,10 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D3" location="ゲーム概要!A1" display="ゲーム概要!A1" xr:uid="{B060912B-55EC-3145-BA03-F8555A215BC9}"/>
-    <hyperlink ref="D13" location="ザコ敵!A1" display="ザコ敵!A1" xr:uid="{106FEF0E-5A3D-7547-8482-862FC69715AC}"/>
-    <hyperlink ref="D12" location="ボス!A1" display="ボス!A1" xr:uid="{2A11C008-1F5C-684A-8341-0659BC12CDC2}"/>
-    <hyperlink ref="D10" location="プレイヤー!A1" display="プレイヤー!A1" xr:uid="{0995C729-FE3C-7C40-BF9F-9B28B8AAB1A4}"/>
-    <hyperlink ref="D11" location="弾と弱点!A1" display="弾と弱点!A1" xr:uid="{8D842DC6-3FD8-5A44-A390-BAD82320BFAC}"/>
+    <hyperlink ref="D17" location="ザコ敵!A1" display="ザコ敵!A1" xr:uid="{106FEF0E-5A3D-7547-8482-862FC69715AC}"/>
+    <hyperlink ref="D16" location="ボス!A1" display="ボス!A1" xr:uid="{2A11C008-1F5C-684A-8341-0659BC12CDC2}"/>
+    <hyperlink ref="D14" location="プレイヤー!A1" display="プレイヤー!A1" xr:uid="{0995C729-FE3C-7C40-BF9F-9B28B8AAB1A4}"/>
+    <hyperlink ref="D15" location="弾と弱点!A1" display="弾と弱点!A1" xr:uid="{8D842DC6-3FD8-5A44-A390-BAD82320BFAC}"/>
     <hyperlink ref="D4" location="タイトル仕様!A1" display="タイトル仕様!A1" xr:uid="{FDF37418-BD27-7B46-BE93-44ADC8CA5DD0}"/>
     <hyperlink ref="D6" location="システム仕様!A1" display="システム仕様!A1" xr:uid="{A6215AC2-BAA8-EB44-B67E-C7D0605D7359}"/>
     <hyperlink ref="D7" location="操作仕様!A1" display="操作仕様!A1" xr:uid="{C14B8B0E-F7E8-5E42-BD9A-7C8B911F17F4}"/>
@@ -2346,11 +3385,239 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C6F69E-9FBF-0D45-A4F4-DF6E59EB881F}">
+  <dimension ref="B1:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21" thickBot="1"/>
+    <row r="2" spans="2:7" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="63">
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="42">
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="F10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="42">
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="42">
+      <c r="B19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="42">
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="63">
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="42">
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="63">
+      <c r="B23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="63">
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CADC2-EAA1-4F46-8D4F-BA24B2549AF2}">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2503,13 +3770,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC65127-204A-934C-82D1-900DBC4B7055}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" zoomScale="81" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3100,7 +4365,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3173,9 +4438,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F4D1A-D136-EE4D-B04B-443A9804D87A}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3183,13 +4450,13 @@
     <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="21" thickBot="1"/>
-    <row r="2" spans="2:5" ht="21" thickBot="1">
+    <row r="1" spans="2:12" ht="21" thickBot="1"/>
+    <row r="2" spans="2:12" ht="21" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:12">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3203,41 +4470,390 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="2:5">
+    <row r="5" spans="2:12" ht="42">
+      <c r="B5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="21">
+      <c r="B7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:12">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:12">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="7:12">
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="7:12">
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="7:12">
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="7:12">
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="7:12">
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="7:12">
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G12:L22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9402452-EC48-B742-ABBF-44A2C405D65C}">
+  <dimension ref="B1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" thickBot="1"/>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="84">
+      <c r="B5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="42">
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21">
+      <c r="B8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="42">
+      <c r="B10" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" thickBot="1"/>
+    <row r="14" spans="2:5" ht="21" thickBot="1">
+      <c r="B14" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="25" spans="2:5" ht="21" thickBot="1"/>
+    <row r="26" spans="2:5" ht="21" thickBot="1">
+      <c r="B26" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3245,12 +4861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E97EC6-92D9-DB4E-A368-5CA432D89078}">
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3369,232 +4985,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C6F69E-9FBF-0D45-A4F4-DF6E59EB881F}">
-  <dimension ref="B1:G24"/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="4" width="21.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="2"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="21" thickBot="1"/>
-    <row r="2" spans="2:7" ht="21" thickBot="1">
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="63">
-      <c r="B5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="42">
-      <c r="B6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="42">
-      <c r="B7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="D9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="F10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="C11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="42">
-      <c r="B18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="42">
-      <c r="B19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="42">
-      <c r="B20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="63">
-      <c r="B21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="42">
-      <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="63">
-      <c r="B23" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="63">
-      <c r="B24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/proposal_etc/フェニックス.xlsx
+++ b/proposal_etc/フェニックス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/Phoenix/proposal_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C9D3B2-2F42-9847-BDF7-42AF24E41DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FA3DA4-0591-CC4A-B11D-DCE37DF7764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" activeTab="7" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
+    <workbookView xWindow="8340" yWindow="500" windowWidth="20460" windowHeight="15780" firstSheet="4" activeTab="7" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -1438,20 +1438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ライフを５表示し、
-攻撃を受けると−１</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウケルト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ライフカウンター</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1537,10 +1523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バリア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フェニックスを覆うバリア</t>
     <rPh sb="0" eb="1">
       <t>イロ</t>
@@ -1557,21 +1539,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バリアのHPバリアのHPが０
-になった場合フェニックスを
-右へ移動しclearを表示</t>
-    <rPh sb="26" eb="27">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1692,6 +1659,35 @@
   <si>
     <t>緑の登場15秒後
 右から出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフを10表示し、
+攻撃を受けると−１</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウケルト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリア×2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリアのHPが０
+になった場合バリアを出す装置に攻撃可能</t>
+    <rPh sb="21" eb="23">
+      <t>ソウティ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2201,13 +2197,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>651934</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>96891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>699467</xdr:colOff>
+      <xdr:colOff>843401</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>214044</xdr:rowOff>
     </xdr:to>
@@ -2224,7 +2220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10084574" y="631967"/>
+          <a:off x="10236201" y="3500491"/>
           <a:ext cx="191467" cy="117153"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
@@ -2264,13 +2260,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>699080</xdr:colOff>
+      <xdr:colOff>843014</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>101017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>890547</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77748</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>218170</xdr:rowOff>
     </xdr:to>
@@ -2287,70 +2283,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10275654" y="636093"/>
-          <a:ext cx="191467" cy="117153"/>
-        </a:xfrm>
-        <a:prstGeom prst="parallelogram">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>899830</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>105142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>137186</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>222295</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="平行四辺形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D3BB52-B133-BE4C-9F35-094AAE1C034E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10476404" y="640218"/>
+          <a:off x="10427281" y="3504617"/>
           <a:ext cx="191467" cy="117153"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
@@ -2390,13 +2323,76 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>140022</xdr:colOff>
+      <xdr:colOff>87031</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>222295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="平行四辺形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D3BB52-B133-BE4C-9F35-094AAE1C034E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10628031" y="3508742"/>
+          <a:ext cx="194089" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283956</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>109267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>331489</xdr:colOff>
+      <xdr:colOff>475423</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>226420</xdr:rowOff>
     </xdr:to>
@@ -2413,7 +2409,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10670707" y="644343"/>
+          <a:off x="10824956" y="3512867"/>
           <a:ext cx="191467" cy="117153"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
@@ -2453,13 +2449,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>334326</xdr:colOff>
+      <xdr:colOff>495194</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>110170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>525793</xdr:colOff>
+      <xdr:colOff>686661</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>227323</xdr:rowOff>
     </xdr:to>
@@ -2476,7 +2472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10865011" y="645246"/>
+          <a:off x="11036194" y="3513770"/>
           <a:ext cx="191467" cy="117153"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
@@ -2485,66 +2481,6 @@
         <a:solidFill>
           <a:srgbClr val="92D050"/>
         </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238607</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107756</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>846668</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123947</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="三角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0383E4B7-11D7-550C-0B68-D92CB1FF3A61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19800000">
-          <a:off x="9813637" y="1662544"/>
-          <a:ext cx="608061" cy="524191"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2677,6 +2613,381 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>767200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="平行四辺形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C810D64-9DEF-1A48-8118-1933DC5E87B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10160000" y="3669824"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787399</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22133</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="平行四辺形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3B738A-8C7D-7E4E-998F-86F14D89B980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10371666" y="3669824"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233799</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="平行四辺形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A0B29C-208D-9543-AF2C-D2A483880431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10583332" y="3678291"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>262465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>453932</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="平行四辺形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF3C334-85F0-BF45-9F58-3478325701A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10803465" y="3669825"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>474132</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>665599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="平行四辺形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A05070-37A3-2F44-AB56-8F2AC71C352D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11015132" y="3686759"/>
+          <a:ext cx="191467" cy="117153"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>467209</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>122770</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="三角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0383E4B7-11D7-550C-0B68-D92CB1FF3A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19800000">
+          <a:off x="10043009" y="4489256"/>
+          <a:ext cx="608061" cy="524191"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3328,7 +3639,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="C10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -3774,7 +4085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC65127-204A-934C-82D1-900DBC4B7055}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="81" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -4365,7 +4676,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4440,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F4D1A-D136-EE4D-B04B-443A9804D87A}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4478,7 +4789,7 @@
         <v>175</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>176</v>
@@ -4489,27 +4800,27 @@
         <v>177</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="21">
       <c r="B7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -4532,7 +4843,7 @@
     </row>
     <row r="11" spans="2:12">
       <c r="G11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -4637,8 +4948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9402452-EC48-B742-ABBF-44A2C405D65C}">
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4650,7 +4961,7 @@
     <row r="1" spans="2:5" ht="21" thickBot="1"/>
     <row r="2" spans="2:5" ht="21" thickBot="1">
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4667,86 +4978,86 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="84">
+    <row r="5" spans="2:5" ht="63">
       <c r="B5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="42">
       <c r="B6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="42">
       <c r="B7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21">
       <c r="B8" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="42">
       <c r="B10" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" thickBot="1"/>
     <row r="14" spans="2:5" ht="21" thickBot="1">
       <c r="B14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -4802,7 +5113,7 @@
     <row r="25" spans="2:5" ht="21" thickBot="1"/>
     <row r="26" spans="2:5" ht="21" thickBot="1">
       <c r="B26" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:5">

--- a/proposal_etc/フェニックス.xlsx
+++ b/proposal_etc/フェニックス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miurayamato/Downloads/ゼミ/Phoenix/proposal_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FA3DA4-0591-CC4A-B11D-DCE37DF7764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F8DD1E-B0F0-5A4F-8082-B708090CFCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="500" windowWidth="20460" windowHeight="15780" firstSheet="4" activeTab="7" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="15780" firstSheet="4" activeTab="7" xr2:uid="{00BF3E51-C397-9D41-9869-9C3E631CF4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="235">
   <si>
     <t>カテゴリー</t>
     <phoneticPr fontId="1"/>
@@ -1576,32 +1576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ザコ赤</t>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">アカ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ザコ青</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ザコ緑</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストが消えた5秒後
-４匹出す</t>
-    <rPh sb="5" eb="6">
-      <t>キエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">ダス </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストが消えた5秒後
 ４匹出す</t>
     <phoneticPr fontId="1"/>
@@ -1631,27 +1605,6 @@
       <t>g</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>ダス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フェニックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑の登場15秒後
-右から出す</t>
-    <rPh sb="0" eb="1">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="2" eb="8">
-      <t>トウジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミギカラ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
       <t>ダス</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1687,6 +1640,231 @@
     </rPh>
     <rPh sb="24" eb="28">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始5秒後右から出す</t>
+    <rPh sb="0" eb="2">
+      <t>カイセィ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックスの回復</t>
+    <rPh sb="7" eb="9">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同色の弾で回復する</t>
+    <rPh sb="0" eb="2">
+      <t>ドウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復エフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同色の弾が当たった場合回復</t>
+    <rPh sb="0" eb="2">
+      <t>ドウショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタッタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックス登場</t>
+    <rPh sb="6" eb="8">
+      <t>トウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックス登場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ緑登場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ青登場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ赤登場</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">アカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左から出す</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始5秒後左から出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右から出す</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右から出す</t>
+    <rPh sb="2" eb="3">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２匹出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２匹出す</t>
+    <rPh sb="2" eb="3">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４匹出す</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ダス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口から火球を出す</t>
+    <rPh sb="0" eb="1">
+      <t>クティ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェニックス火球</t>
+    <rPh sb="6" eb="8">
+      <t>カキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火球エフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>カキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出ない</t>
+    <rPh sb="0" eb="1">
+      <t>デナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤×１</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤×２</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤×３</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤×４</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青×１</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青×２</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青×３</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑×１</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑×２</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムポップアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに顔を向け
+火球を出す</t>
+    <rPh sb="10" eb="12">
+      <t>カキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1721,7 +1899,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,6 +1921,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,7 +2138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2033,7 +2223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2046,6 +2236,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2064,6 +2266,3192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ステージ仕様!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ステージ１</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-81D0-AD4F-A806-B84AF49F7AD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ステージ仕様!$B$43:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>出ない</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>赤×１</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>赤×２</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>赤×３</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>赤×４</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>青×１</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>青×２</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>緑×１</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>緑×２</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ステージ仕様!$C$43:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81D0-AD4F-A806-B84AF49F7AD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ステージ仕様!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ステージ２</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ステージ仕様!$B$56:$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>出ない</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>赤×２</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>赤×３</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>赤×４</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>青×１</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>青×２</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>青×３</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>緑×１</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>緑×２</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ステージ仕様!$C$56:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A3C-1F41-BCBE-EF9C5A6FF60F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ステージ仕様!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ステージ３</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ステージ仕様!$B$69:$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>出ない</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>赤×２</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>赤×３</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>赤×４</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>青×１</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>青×２</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>青×３</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>緑×１</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>緑×２</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ステージ仕様!$C$69:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C889-6C40-85B3-3AF356DF7809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2997,6 +6385,119 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6406</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>246970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53716</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0722F5-90D9-15B7-8DF3-69C1D0C47C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54934</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>230532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126742</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5818E0-68EE-2FC0-18CF-2A9EBBA29D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18644</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>74967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680905B1-F965-0F96-FEC1-5618C2FE454A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1082287</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -3157,7 +6658,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3206,7 +6707,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4751,8 +8252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F4D1A-D136-EE4D-B04B-443A9804D87A}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="D1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4800,7 +8301,7 @@
         <v>177</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>178</v>
@@ -4946,10 +8447,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9402452-EC48-B742-ABBF-44A2C405D65C}">
-  <dimension ref="B1:E34"/>
+  <dimension ref="B1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4980,7 +8481,7 @@
     </row>
     <row r="5" spans="2:5" ht="63">
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>190</v>
@@ -4989,7 +8490,7 @@
         <v>191</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="42">
@@ -5008,50 +8509,58 @@
     </row>
     <row r="7" spans="2:5" ht="42">
       <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21">
       <c r="B8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21">
+      <c r="B9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="42">
       <c r="B10" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E10" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" thickBot="1"/>
@@ -5075,16 +8584,32 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="21">
+      <c r="B18" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3"/>
@@ -5131,16 +8656,32 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
+      <c r="B29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="42">
+      <c r="B30" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3"/>
@@ -5166,9 +8707,250 @@
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
     </row>
+    <row r="39" spans="2:5" ht="21" thickBot="1"/>
+    <row r="40" spans="2:5" ht="21" thickBot="1">
+      <c r="B40" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
